--- a/config_8.3/permission_server_config.xlsx
+++ b/config_8.3/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5533" uniqueCount="2086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="2091">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9373,6 +9373,26 @@
   </si>
   <si>
     <t>actp_rank_xrkh_023_ygbd_rank</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutual_game_can_show</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏互导显示权限</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天欢乐捕鱼没有账号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_own_byam</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼奥秘没有账号</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -10252,11 +10272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q511"/>
+  <dimension ref="A1:Q513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B515" sqref="B515"/>
+      <pane ySplit="1" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B525" sqref="B525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15393,6 +15413,17 @@
         <v>503</v>
       </c>
     </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C513" s="1">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15404,7 +15435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D351" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -29160,13 +29191,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1099"/>
+  <dimension ref="A1:I1105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1082" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1099" sqref="B1099"/>
+      <selection pane="bottomRight" activeCell="E1111" sqref="E1111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -55388,6 +55419,144 @@
       </c>
       <c r="G1099" s="21" t="s">
         <v>2084</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:9">
+      <c r="A1100" s="21">
+        <v>1099</v>
+      </c>
+      <c r="B1100" s="21">
+        <v>504</v>
+      </c>
+      <c r="C1100" s="21" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D1100" s="11" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E1100" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1100" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1100" s="21" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:9">
+      <c r="A1101" s="21">
+        <v>1100</v>
+      </c>
+      <c r="B1101" s="21">
+        <v>504</v>
+      </c>
+      <c r="C1101" s="21" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D1101" s="10" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E1101" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1101" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1101" s="21" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:9">
+      <c r="A1102" s="21">
+        <v>1101</v>
+      </c>
+      <c r="B1102" s="21">
+        <v>504</v>
+      </c>
+      <c r="C1102" s="21" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D1102" s="11" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1102" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1102" s="21">
+        <v>2</v>
+      </c>
+      <c r="G1102" s="21" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:9">
+      <c r="A1103" s="21">
+        <v>1102</v>
+      </c>
+      <c r="B1103" s="21">
+        <v>504</v>
+      </c>
+      <c r="C1103" s="21" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D1103" s="10" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E1103" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1103" s="21">
+        <v>2</v>
+      </c>
+      <c r="G1103" s="21" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:9">
+      <c r="A1104" s="21">
+        <v>1103</v>
+      </c>
+      <c r="B1104" s="21">
+        <v>504</v>
+      </c>
+      <c r="C1104" s="21" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D1104" s="11" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E1104" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1104" s="21">
+        <v>3</v>
+      </c>
+      <c r="G1104" s="21" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7">
+      <c r="A1105" s="21">
+        <v>1104</v>
+      </c>
+      <c r="B1105" s="21">
+        <v>504</v>
+      </c>
+      <c r="C1105" s="21" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D1105" s="10" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E1105" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1105" s="21">
+        <v>3</v>
+      </c>
+      <c r="G1105" s="21" t="s">
+        <v>2090</v>
       </c>
     </row>
   </sheetData>
